--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Spp1-Itgb1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Spp1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>20.7803504010484</v>
+        <v>1.414043</v>
       </c>
       <c r="H2">
-        <v>20.7803504010484</v>
+        <v>4.242129</v>
       </c>
       <c r="I2">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="J2">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N2">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q2">
-        <v>1517.565785820782</v>
+        <v>134.051065707593</v>
       </c>
       <c r="R2">
-        <v>1517.565785820782</v>
+        <v>1206.459591368337</v>
       </c>
       <c r="S2">
-        <v>0.001298799612619921</v>
+        <v>0.000101743696425136</v>
       </c>
       <c r="T2">
-        <v>0.001298799612619921</v>
+        <v>0.000101743696425136</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>20.7803504010484</v>
+        <v>1.414043</v>
       </c>
       <c r="H3">
-        <v>20.7803504010484</v>
+        <v>4.242129</v>
       </c>
       <c r="I3">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="J3">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N3">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q3">
-        <v>3010.858047876706</v>
+        <v>205.9431493892613</v>
       </c>
       <c r="R3">
-        <v>3010.858047876706</v>
+        <v>1853.488344503352</v>
       </c>
       <c r="S3">
-        <v>0.002576824874923512</v>
+        <v>0.0001563092181452951</v>
       </c>
       <c r="T3">
-        <v>0.002576824874923512</v>
+        <v>0.0001563092181452951</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>20.7803504010484</v>
+        <v>1.414043</v>
       </c>
       <c r="H4">
-        <v>20.7803504010484</v>
+        <v>4.242129</v>
       </c>
       <c r="I4">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="J4">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N4">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q4">
-        <v>1413.474425287453</v>
+        <v>102.9083518894053</v>
       </c>
       <c r="R4">
-        <v>1413.474425287453</v>
+        <v>926.1751670046481</v>
       </c>
       <c r="S4">
-        <v>0.00120971364349691</v>
+        <v>7.810662346456574E-05</v>
       </c>
       <c r="T4">
-        <v>0.00120971364349691</v>
+        <v>7.810662346456574E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>20.7803504010484</v>
+        <v>1.414043</v>
       </c>
       <c r="H5">
-        <v>20.7803504010484</v>
+        <v>4.242129</v>
       </c>
       <c r="I5">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="J5">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N5">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q5">
-        <v>1586.506086632575</v>
+        <v>108.0132347157767</v>
       </c>
       <c r="R5">
-        <v>1586.506086632575</v>
+        <v>972.1191124419902</v>
       </c>
       <c r="S5">
-        <v>0.001357801757255009</v>
+        <v>8.198118907007286E-05</v>
       </c>
       <c r="T5">
-        <v>0.001357801757255009</v>
+        <v>8.198118907007288E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>20.7803504010484</v>
+        <v>1.414043</v>
       </c>
       <c r="H6">
-        <v>20.7803504010484</v>
+        <v>4.242129</v>
       </c>
       <c r="I6">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="J6">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N6">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O6">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P6">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q6">
-        <v>1184.72348472298</v>
+        <v>82.27875884009801</v>
       </c>
       <c r="R6">
-        <v>1184.72348472298</v>
+        <v>740.508829560882</v>
       </c>
       <c r="S6">
-        <v>0.001013938517457882</v>
+        <v>6.244892584386019E-05</v>
       </c>
       <c r="T6">
-        <v>0.001013938517457882</v>
+        <v>6.244892584386021E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>20.7803504010484</v>
+        <v>1.414043</v>
       </c>
       <c r="H7">
-        <v>20.7803504010484</v>
+        <v>4.242129</v>
       </c>
       <c r="I7">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="J7">
-        <v>0.009373350257706563</v>
+        <v>0.0006049102259513945</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N7">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q7">
-        <v>2239.043321694315</v>
+        <v>163.7969317600083</v>
       </c>
       <c r="R7">
-        <v>2239.043321694315</v>
+        <v>1474.172385840075</v>
       </c>
       <c r="S7">
-        <v>0.001916271851953328</v>
+        <v>0.0001243205730024647</v>
       </c>
       <c r="T7">
-        <v>0.001916271851953328</v>
+        <v>0.0001243205730024647</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>880.664880322459</v>
+        <v>22.694015</v>
       </c>
       <c r="H8">
-        <v>880.664880322459</v>
+        <v>68.08204499999999</v>
       </c>
       <c r="I8">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241584</v>
       </c>
       <c r="J8">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241585</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N8">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q8">
-        <v>64313.97283290714</v>
+        <v>2151.389240591765</v>
       </c>
       <c r="R8">
-        <v>64313.97283290714</v>
+        <v>19362.50316532588</v>
       </c>
       <c r="S8">
-        <v>0.05504272946971444</v>
+        <v>0.001632887382369194</v>
       </c>
       <c r="T8">
-        <v>0.05504272946971444</v>
+        <v>0.001632887382369195</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>880.664880322459</v>
+        <v>22.694015</v>
       </c>
       <c r="H9">
-        <v>880.664880322459</v>
+        <v>68.08204499999999</v>
       </c>
       <c r="I9">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241584</v>
       </c>
       <c r="J9">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241585</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N9">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q9">
-        <v>127599.2411690747</v>
+        <v>3305.187268977772</v>
       </c>
       <c r="R9">
-        <v>127599.2411690747</v>
+        <v>29746.68542079996</v>
       </c>
       <c r="S9">
-        <v>0.1092050483408576</v>
+        <v>0.00250861094127095</v>
       </c>
       <c r="T9">
-        <v>0.1092050483408576</v>
+        <v>0.002508610941270951</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>880.664880322459</v>
+        <v>22.694015</v>
       </c>
       <c r="H10">
-        <v>880.664880322459</v>
+        <v>68.08204499999999</v>
       </c>
       <c r="I10">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241584</v>
       </c>
       <c r="J10">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241585</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N10">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q10">
-        <v>59902.61287999405</v>
+        <v>1651.578969948893</v>
       </c>
       <c r="R10">
-        <v>59902.61287999405</v>
+        <v>14864.21072954004</v>
       </c>
       <c r="S10">
-        <v>0.05126729340525959</v>
+        <v>0.001253535348291535</v>
       </c>
       <c r="T10">
-        <v>0.05126729340525959</v>
+        <v>0.001253535348291535</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>880.664880322459</v>
+        <v>22.694015</v>
       </c>
       <c r="H11">
-        <v>880.664880322459</v>
+        <v>68.08204499999999</v>
       </c>
       <c r="I11">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241584</v>
       </c>
       <c r="J11">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241585</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N11">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q11">
-        <v>67235.64164946131</v>
+        <v>1733.507374838216</v>
       </c>
       <c r="R11">
-        <v>67235.64164946131</v>
+        <v>15601.56637354395</v>
       </c>
       <c r="S11">
-        <v>0.05754322227378217</v>
+        <v>0.001315718358263553</v>
       </c>
       <c r="T11">
-        <v>0.05754322227378217</v>
+        <v>0.001315718358263553</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>880.664880322459</v>
+        <v>22.694015</v>
       </c>
       <c r="H12">
-        <v>880.664880322459</v>
+        <v>68.08204499999999</v>
       </c>
       <c r="I12">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241584</v>
       </c>
       <c r="J12">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241585</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N12">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O12">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P12">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q12">
-        <v>50208.21813650127</v>
+        <v>1320.49406368729</v>
       </c>
       <c r="R12">
-        <v>50208.21813650127</v>
+        <v>11884.44657318561</v>
       </c>
       <c r="S12">
-        <v>0.04297040357348001</v>
+        <v>0.001002244528514657</v>
       </c>
       <c r="T12">
-        <v>0.04297040357348001</v>
+        <v>0.001002244528514657</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>880.664880322459</v>
+        <v>22.694015</v>
       </c>
       <c r="H13">
-        <v>880.664880322459</v>
+        <v>68.08204499999999</v>
       </c>
       <c r="I13">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241584</v>
       </c>
       <c r="J13">
-        <v>0.3972397107657614</v>
+        <v>0.009708220854241585</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N13">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q13">
-        <v>94889.96965312204</v>
+        <v>2628.781463021708</v>
       </c>
       <c r="R13">
-        <v>94889.96965312204</v>
+        <v>23659.03316719537</v>
       </c>
       <c r="S13">
-        <v>0.08121101370266755</v>
+        <v>0.001995224295531697</v>
       </c>
       <c r="T13">
-        <v>0.08121101370266755</v>
+        <v>0.001995224295531698</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>437.056994102845</v>
+        <v>966.8228453333332</v>
       </c>
       <c r="H14">
-        <v>437.056994102845</v>
+        <v>2900.468536</v>
       </c>
       <c r="I14">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300253</v>
       </c>
       <c r="J14">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300254</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N14">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q14">
-        <v>31917.78424827188</v>
+        <v>91654.66168099604</v>
       </c>
       <c r="R14">
-        <v>31917.78424827188</v>
+        <v>824891.9551289644</v>
       </c>
       <c r="S14">
-        <v>0.02731664498809238</v>
+        <v>0.06956516178962088</v>
       </c>
       <c r="T14">
-        <v>0.02731664498809238</v>
+        <v>0.0695651617896209</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>437.056994102845</v>
+        <v>966.8228453333332</v>
       </c>
       <c r="H15">
-        <v>437.056994102845</v>
+        <v>2900.468536</v>
       </c>
       <c r="I15">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300253</v>
       </c>
       <c r="J15">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300254</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N15">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q15">
-        <v>63325.04229615701</v>
+        <v>140809.3966516106</v>
       </c>
       <c r="R15">
-        <v>63325.04229615701</v>
+        <v>1267284.569864495</v>
       </c>
       <c r="S15">
-        <v>0.05419635917721052</v>
+        <v>0.1068732160472226</v>
       </c>
       <c r="T15">
-        <v>0.05419635917721052</v>
+        <v>0.1068732160472227</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>437.056994102845</v>
+        <v>966.8228453333332</v>
       </c>
       <c r="H16">
-        <v>437.056994102845</v>
+        <v>2900.468536</v>
       </c>
       <c r="I16">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300253</v>
       </c>
       <c r="J16">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300254</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N16">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q16">
-        <v>29728.51138863439</v>
+        <v>70361.47103184187</v>
       </c>
       <c r="R16">
-        <v>29728.51138863439</v>
+        <v>633253.2392865767</v>
       </c>
       <c r="S16">
-        <v>0.02544296888878668</v>
+        <v>0.05340379885009915</v>
       </c>
       <c r="T16">
-        <v>0.02544296888878668</v>
+        <v>0.05340379885009915</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>437.056994102845</v>
+        <v>966.8228453333332</v>
       </c>
       <c r="H17">
-        <v>437.056994102845</v>
+        <v>2900.468536</v>
       </c>
       <c r="I17">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300253</v>
       </c>
       <c r="J17">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300254</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N17">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q17">
-        <v>33367.75212965217</v>
+        <v>73851.82976865934</v>
       </c>
       <c r="R17">
-        <v>33367.75212965217</v>
+        <v>664666.4679179342</v>
       </c>
       <c r="S17">
-        <v>0.02855759133799279</v>
+        <v>0.05605295346784914</v>
       </c>
       <c r="T17">
-        <v>0.02855759133799279</v>
+        <v>0.05605295346784916</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>437.056994102845</v>
+        <v>966.8228453333332</v>
       </c>
       <c r="H18">
-        <v>437.056994102845</v>
+        <v>2900.468536</v>
       </c>
       <c r="I18">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300253</v>
       </c>
       <c r="J18">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300254</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N18">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O18">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P18">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q18">
-        <v>24917.3702600294</v>
+        <v>56256.41068360629</v>
       </c>
       <c r="R18">
-        <v>24917.3702600294</v>
+        <v>506307.6961524566</v>
       </c>
       <c r="S18">
-        <v>0.02132538249320759</v>
+        <v>0.04269816983809632</v>
       </c>
       <c r="T18">
-        <v>0.02132538249320759</v>
+        <v>0.04269816983809633</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>437.056994102845</v>
+        <v>966.8228453333332</v>
       </c>
       <c r="H19">
-        <v>437.056994102845</v>
+        <v>2900.468536</v>
       </c>
       <c r="I19">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300253</v>
       </c>
       <c r="J19">
-        <v>0.1971424066121462</v>
+        <v>0.4135949372300254</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N19">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q19">
-        <v>47092.06172944974</v>
+        <v>111992.7863728904</v>
       </c>
       <c r="R19">
-        <v>47092.06172944974</v>
+        <v>1007935.077356014</v>
       </c>
       <c r="S19">
-        <v>0.04030345972685617</v>
+        <v>0.08500163723713725</v>
       </c>
       <c r="T19">
-        <v>0.04030345972685617</v>
+        <v>0.08500163723713726</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>826.3828658964979</v>
+        <v>447.0639343333333</v>
       </c>
       <c r="H20">
-        <v>826.3828658964979</v>
+        <v>1341.191803</v>
       </c>
       <c r="I20">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="J20">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N20">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q20">
-        <v>60349.81793231833</v>
+        <v>42381.59436227378</v>
       </c>
       <c r="R20">
-        <v>60349.81793231833</v>
+        <v>381434.3492604641</v>
       </c>
       <c r="S20">
-        <v>0.05165003117791324</v>
+        <v>0.03216729421767061</v>
       </c>
       <c r="T20">
-        <v>0.05165003117791324</v>
+        <v>0.03216729421767061</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>826.3828658964979</v>
+        <v>447.0639343333333</v>
       </c>
       <c r="H21">
-        <v>826.3828658964979</v>
+        <v>1341.191803</v>
       </c>
       <c r="I21">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="J21">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N21">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q21">
-        <v>119734.3381797045</v>
+        <v>65111.00059542784</v>
       </c>
       <c r="R21">
-        <v>119734.3381797045</v>
+        <v>585999.0053588506</v>
       </c>
       <c r="S21">
-        <v>0.1024739180983802</v>
+        <v>0.04941873340245159</v>
       </c>
       <c r="T21">
-        <v>0.1024739180983802</v>
+        <v>0.04941873340245161</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>826.3828658964979</v>
+        <v>447.0639343333333</v>
       </c>
       <c r="H22">
-        <v>826.3828658964979</v>
+        <v>1341.191803</v>
       </c>
       <c r="I22">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="J22">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N22">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q22">
-        <v>56210.36334312822</v>
+        <v>32535.51177116726</v>
       </c>
       <c r="R22">
-        <v>56210.36334312822</v>
+        <v>292819.6059405053</v>
       </c>
       <c r="S22">
-        <v>0.04810730369477481</v>
+        <v>0.02469419556799971</v>
       </c>
       <c r="T22">
-        <v>0.04810730369477481</v>
+        <v>0.02469419556799971</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>826.3828658964979</v>
+        <v>447.0639343333333</v>
       </c>
       <c r="H23">
-        <v>826.3828658964979</v>
+        <v>1341.191803</v>
       </c>
       <c r="I23">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="J23">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N23">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q23">
-        <v>63091.40227815986</v>
+        <v>34149.47188459255</v>
       </c>
       <c r="R23">
-        <v>63091.40227815986</v>
+        <v>307345.246961333</v>
       </c>
       <c r="S23">
-        <v>0.05399639976345563</v>
+        <v>0.02591917850234515</v>
       </c>
       <c r="T23">
-        <v>0.05399639976345563</v>
+        <v>0.02591917850234515</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>826.3828658964979</v>
+        <v>447.0639343333333</v>
       </c>
       <c r="H24">
-        <v>826.3828658964979</v>
+        <v>1341.191803</v>
       </c>
       <c r="I24">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="J24">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N24">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O24">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P24">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q24">
-        <v>47113.50721741767</v>
+        <v>26013.25818176515</v>
       </c>
       <c r="R24">
-        <v>47113.50721741767</v>
+        <v>234119.3236358863</v>
       </c>
       <c r="S24">
-        <v>0.04032181371962897</v>
+        <v>0.01974385678699072</v>
       </c>
       <c r="T24">
-        <v>0.04032181371962897</v>
+        <v>0.01974385678699072</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>826.3828658964979</v>
+        <v>447.0639343333333</v>
       </c>
       <c r="H25">
-        <v>826.3828658964979</v>
+        <v>1341.191803</v>
       </c>
       <c r="I25">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="J25">
-        <v>0.3727548332690497</v>
+        <v>0.1912484595817072</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N25">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q25">
-        <v>89041.18560747713</v>
+        <v>51786.04946550977</v>
       </c>
       <c r="R25">
-        <v>89041.18560747713</v>
+        <v>466074.4451895879</v>
       </c>
       <c r="S25">
-        <v>0.07620536681489679</v>
+        <v>0.03930520110424947</v>
       </c>
       <c r="T25">
-        <v>0.07620536681489679</v>
+        <v>0.03930520110424947</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>52.0757428876562</v>
+        <v>843.4949546666667</v>
       </c>
       <c r="H26">
-        <v>52.0757428876562</v>
+        <v>2530.484864</v>
       </c>
       <c r="I26">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="J26">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N26">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q26">
-        <v>3803.033353735936</v>
+        <v>79963.19602165176</v>
       </c>
       <c r="R26">
-        <v>3803.033353735936</v>
+        <v>719668.7641948658</v>
       </c>
       <c r="S26">
-        <v>0.003254803378386254</v>
+        <v>0.06069143201708801</v>
       </c>
       <c r="T26">
-        <v>0.003254803378386254</v>
+        <v>0.06069143201708803</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>52.0757428876562</v>
+        <v>843.4949546666667</v>
       </c>
       <c r="H27">
-        <v>52.0757428876562</v>
+        <v>2530.484864</v>
       </c>
       <c r="I27">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="J27">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N27">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q27">
-        <v>7545.23704107258</v>
+        <v>122847.7546001115</v>
       </c>
       <c r="R27">
-        <v>7545.23704107258</v>
+        <v>1105629.791401004</v>
       </c>
       <c r="S27">
-        <v>0.00645754605015051</v>
+        <v>0.09324047208850633</v>
       </c>
       <c r="T27">
-        <v>0.00645754605015051</v>
+        <v>0.09324047208850636</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>52.0757428876562</v>
+        <v>843.4949546666667</v>
       </c>
       <c r="H28">
-        <v>52.0757428876562</v>
+        <v>2530.484864</v>
       </c>
       <c r="I28">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="J28">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N28">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q28">
-        <v>3542.179478640235</v>
+        <v>61386.16407830266</v>
       </c>
       <c r="R28">
-        <v>3542.179478640235</v>
+        <v>552475.476704724</v>
       </c>
       <c r="S28">
-        <v>0.003031553147595461</v>
+        <v>0.04659161200784578</v>
       </c>
       <c r="T28">
-        <v>0.003031553147595461</v>
+        <v>0.0465916120078458</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>52.0757428876562</v>
+        <v>843.4949546666667</v>
       </c>
       <c r="H29">
-        <v>52.0757428876562</v>
+        <v>2530.484864</v>
       </c>
       <c r="I29">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="J29">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N29">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q29">
-        <v>3975.798360599895</v>
+        <v>64431.29276831332</v>
       </c>
       <c r="R29">
-        <v>3975.798360599895</v>
+        <v>579881.63491482</v>
       </c>
       <c r="S29">
-        <v>0.00340266327749951</v>
+        <v>0.04890284054882386</v>
       </c>
       <c r="T29">
-        <v>0.00340266327749951</v>
+        <v>0.04890284054882387</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>52.0757428876562</v>
+        <v>843.4949546666667</v>
       </c>
       <c r="H30">
-        <v>52.0757428876562</v>
+        <v>2530.484864</v>
       </c>
       <c r="I30">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="J30">
-        <v>0.02348969909533606</v>
+        <v>0.3608367805054546</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N30">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O30">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P30">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q30">
-        <v>2968.927587490987</v>
+        <v>49080.34476876449</v>
       </c>
       <c r="R30">
-        <v>2968.927587490987</v>
+        <v>441723.1029188805</v>
       </c>
       <c r="S30">
-        <v>0.002540938940873877</v>
+        <v>0.03725159268399113</v>
       </c>
       <c r="T30">
-        <v>0.002540938940873877</v>
+        <v>0.03725159268399114</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>843.4949546666667</v>
+      </c>
+      <c r="H31">
+        <v>2530.484864</v>
+      </c>
+      <c r="I31">
+        <v>0.3608367805054546</v>
+      </c>
+      <c r="J31">
+        <v>0.3608367805054546</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>115.8358916666667</v>
+      </c>
+      <c r="N31">
+        <v>347.5076749999999</v>
+      </c>
+      <c r="O31">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="P31">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="Q31">
+        <v>97706.9901901479</v>
+      </c>
+      <c r="R31">
+        <v>879362.9117113311</v>
+      </c>
+      <c r="S31">
+        <v>0.07415883115919951</v>
+      </c>
+      <c r="T31">
+        <v>0.07415883115919952</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>56.118235</v>
+      </c>
+      <c r="H32">
+        <v>168.354705</v>
+      </c>
+      <c r="I32">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="J32">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>94.799851</v>
+      </c>
+      <c r="N32">
+        <v>284.399553</v>
+      </c>
+      <c r="O32">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="P32">
+        <v>0.1681963571786457</v>
+      </c>
+      <c r="Q32">
+        <v>5320.000316382985</v>
+      </c>
+      <c r="R32">
+        <v>47880.00284744687</v>
+      </c>
+      <c r="S32">
+        <v>0.00403783807547185</v>
+      </c>
+      <c r="T32">
+        <v>0.004037838075471851</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>56.118235</v>
+      </c>
+      <c r="H33">
+        <v>168.354705</v>
+      </c>
+      <c r="I33">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="J33">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>145.6413626666667</v>
+      </c>
+      <c r="N33">
+        <v>436.924088</v>
+      </c>
+      <c r="O33">
+        <v>0.2584006873076977</v>
+      </c>
+      <c r="P33">
+        <v>0.2584006873076978</v>
+      </c>
+      <c r="Q33">
+        <v>8173.136215848225</v>
+      </c>
+      <c r="R33">
+        <v>73558.22594263403</v>
+      </c>
+      <c r="S33">
+        <v>0.006203345610100917</v>
+      </c>
+      <c r="T33">
+        <v>0.006203345610100919</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>56.118235</v>
+      </c>
+      <c r="H34">
+        <v>168.354705</v>
+      </c>
+      <c r="I34">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="J34">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>72.77597066666667</v>
+      </c>
+      <c r="N34">
+        <v>218.327912</v>
+      </c>
+      <c r="O34">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="P34">
+        <v>0.1291210168281099</v>
+      </c>
+      <c r="Q34">
+        <v>4084.059024225106</v>
+      </c>
+      <c r="R34">
+        <v>36756.53121802596</v>
+      </c>
+      <c r="S34">
+        <v>0.003099768430409128</v>
+      </c>
+      <c r="T34">
+        <v>0.003099768430409128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>56.118235</v>
+      </c>
+      <c r="H35">
+        <v>168.354705</v>
+      </c>
+      <c r="I35">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="J35">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>76.38610333333334</v>
+      </c>
+      <c r="N35">
+        <v>229.15831</v>
+      </c>
+      <c r="O35">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="P35">
+        <v>0.1355262079445491</v>
+      </c>
+      <c r="Q35">
+        <v>4286.653297594284</v>
+      </c>
+      <c r="R35">
+        <v>38579.87967834855</v>
+      </c>
+      <c r="S35">
+        <v>0.003253535878197325</v>
+      </c>
+      <c r="T35">
+        <v>0.003253535878197326</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>52.0757428876562</v>
-      </c>
-      <c r="H31">
-        <v>52.0757428876562</v>
-      </c>
-      <c r="I31">
-        <v>0.02348969909533606</v>
-      </c>
-      <c r="J31">
-        <v>0.02348969909533606</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>107.748102341015</v>
-      </c>
-      <c r="N31">
-        <v>107.748102341015</v>
-      </c>
-      <c r="O31">
-        <v>0.2044383063972043</v>
-      </c>
-      <c r="P31">
-        <v>0.2044383063972043</v>
-      </c>
-      <c r="Q31">
-        <v>5611.062474143564</v>
-      </c>
-      <c r="R31">
-        <v>5611.062474143564</v>
-      </c>
-      <c r="S31">
-        <v>0.004802194300830446</v>
-      </c>
-      <c r="T31">
-        <v>0.004802194300830446</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>56.118235</v>
+      </c>
+      <c r="H36">
+        <v>168.354705</v>
+      </c>
+      <c r="I36">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="J36">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>58.18688599999999</v>
+      </c>
+      <c r="N36">
+        <v>174.560658</v>
+      </c>
+      <c r="O36">
+        <v>0.10323668399826</v>
+      </c>
+      <c r="P36">
+        <v>0.1032366839982601</v>
+      </c>
+      <c r="Q36">
+        <v>3265.34534246621</v>
+      </c>
+      <c r="R36">
+        <v>29388.10808219589</v>
+      </c>
+      <c r="S36">
+        <v>0.002478371234823354</v>
+      </c>
+      <c r="T36">
+        <v>0.002478371234823354</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>56.118235</v>
+      </c>
+      <c r="H37">
+        <v>168.354705</v>
+      </c>
+      <c r="I37">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="J37">
+        <v>0.0240066916026199</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>115.8358916666667</v>
+      </c>
+      <c r="N37">
+        <v>347.5076749999999</v>
+      </c>
+      <c r="O37">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="P37">
+        <v>0.2055190467427377</v>
+      </c>
+      <c r="Q37">
+        <v>6500.505789984541</v>
+      </c>
+      <c r="R37">
+        <v>58504.55210986087</v>
+      </c>
+      <c r="S37">
+        <v>0.004933832373617328</v>
+      </c>
+      <c r="T37">
+        <v>0.004933832373617329</v>
       </c>
     </row>
   </sheetData>
